--- a/low-flow-index/dados-saida/maringa.xlsx
+++ b/low-flow-index/dados-saida/maringa.xlsx
@@ -436,7 +436,7 @@
         <v>37338</v>
       </c>
       <c r="D3">
-        <v>3.51</v>
+        <v>3.6975</v>
       </c>
       <c r="E3" s="3">
         <v>35</v>
@@ -461,24 +461,24 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>37992</v>
       </c>
       <c r="C5" s="2">
-        <v>38044</v>
+        <v>38052</v>
       </c>
       <c r="D5">
-        <v>2.134700000000004</v>
+        <v>2.137500000000005</v>
       </c>
       <c r="E5" s="3">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
         <v>39617</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2">
         <v>39789</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
         <v>39958</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2">
         <v>40385</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2">
         <v>40464</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2">
         <v>40944</v>
@@ -572,7 +572,7 @@
         <v>40959</v>
       </c>
       <c r="D11">
-        <v>9.778099999999995</v>
+        <v>9.938099999999995</v>
       </c>
       <c r="E11" s="3">
         <v>16</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2">
         <v>40976</v>
@@ -589,7 +589,7 @@
         <v>41056</v>
       </c>
       <c r="D12">
-        <v>42.974</v>
+        <v>43.244</v>
       </c>
       <c r="E12" s="3">
         <v>81</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2">
         <v>41204</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2">
         <v>41635</v>
@@ -623,7 +623,7 @@
         <v>41690</v>
       </c>
       <c r="D14">
-        <v>19.9572</v>
+        <v>20.0872</v>
       </c>
       <c r="E14" s="3">
         <v>56</v>
@@ -631,16 +631,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2">
         <v>42325</v>
       </c>
       <c r="C15" s="2">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="E15" s="3">
-        <v>1919</v>
+        <v>1933</v>
       </c>
     </row>
   </sheetData>
